--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Alk.xlsx
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.13463</v>
       </c>
       <c r="O2">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P2">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q2">
-        <v>0.1032906790111111</v>
+        <v>0.1281990240777778</v>
       </c>
       <c r="R2">
-        <v>0.9296161111000001</v>
+        <v>1.1537912167</v>
       </c>
       <c r="S2">
-        <v>0.03683674436444722</v>
+        <v>0.04479013488781225</v>
       </c>
       <c r="T2">
-        <v>0.03683674436444722</v>
+        <v>0.04479013488781225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.856696666666667</v>
+      </c>
+      <c r="H3">
+        <v>8.57009</v>
+      </c>
+      <c r="I3">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="J3">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>2.301656666666667</v>
-      </c>
-      <c r="H3">
-        <v>6.90497</v>
-      </c>
-      <c r="I3">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="J3">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N3">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O3">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P3">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q3">
-        <v>0.02487170194</v>
+        <v>0.03631718472333334</v>
       </c>
       <c r="R3">
-        <v>0.22384531746</v>
+        <v>0.3268546625100001</v>
       </c>
       <c r="S3">
-        <v>0.008870040695288199</v>
+        <v>0.01268848662620717</v>
       </c>
       <c r="T3">
-        <v>0.008870040695288198</v>
+        <v>0.01268848662620717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>114.933136</v>
       </c>
       <c r="I4">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J4">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>0.13463</v>
       </c>
       <c r="O4">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P4">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q4">
         <v>1.719272011075555</v>
@@ -700,10 +700,10 @@
         <v>15.47344809968</v>
       </c>
       <c r="S4">
-        <v>0.6131471316799705</v>
+        <v>0.6006787168535301</v>
       </c>
       <c r="T4">
-        <v>0.6131471316799705</v>
+        <v>0.60067871685353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>114.933136</v>
       </c>
       <c r="I5">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J5">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N5">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O5">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P5">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q5">
-        <v>0.413989155872</v>
+        <v>0.4870483193226667</v>
       </c>
       <c r="R5">
-        <v>3.725902402848</v>
+        <v>4.383434873904001</v>
       </c>
       <c r="S5">
-        <v>0.1476417122097697</v>
+        <v>0.1701647892897332</v>
       </c>
       <c r="T5">
-        <v>0.1476417122097696</v>
+        <v>0.1701647892897332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H6">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I6">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J6">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.13463</v>
       </c>
       <c r="O6">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P6">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q6">
-        <v>0.1772531698911111</v>
+        <v>0.09341562834666665</v>
       </c>
       <c r="R6">
-        <v>1.59527852902</v>
+        <v>0.84074065512</v>
       </c>
       <c r="S6">
-        <v>0.06321412318689873</v>
+        <v>0.03263752297941412</v>
       </c>
       <c r="T6">
-        <v>0.06321412318689872</v>
+        <v>0.03263752297941412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H7">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I7">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J7">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N7">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O7">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P7">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q7">
-        <v>0.042681373108</v>
+        <v>0.026463482504</v>
       </c>
       <c r="R7">
-        <v>0.384132357972</v>
+        <v>0.238171342536</v>
       </c>
       <c r="S7">
-        <v>0.01522153639956089</v>
+        <v>0.009245803230423198</v>
       </c>
       <c r="T7">
-        <v>0.01522153639956089</v>
+        <v>0.009245803230423198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H8">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I8">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J8">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.13463</v>
       </c>
       <c r="O8">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P8">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q8">
-        <v>0.1369652770211111</v>
+        <v>0.2052308994511111</v>
       </c>
       <c r="R8">
-        <v>1.23268749319</v>
+        <v>1.84707809506</v>
       </c>
       <c r="S8">
-        <v>0.04884617803596424</v>
+        <v>0.07170350738384217</v>
       </c>
       <c r="T8">
-        <v>0.04884617803596422</v>
+        <v>0.07170350738384217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H9">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I9">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J9">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N9">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O9">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P9">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q9">
-        <v>0.032980319026</v>
+        <v>0.05813935433533334</v>
       </c>
       <c r="R9">
-        <v>0.296822871234</v>
+        <v>0.523254189018</v>
       </c>
       <c r="S9">
-        <v>0.01176183168365066</v>
+        <v>0.0203127094118128</v>
       </c>
       <c r="T9">
-        <v>0.01176183168365066</v>
+        <v>0.02031270941181279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H10">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I10">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J10">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.13463</v>
       </c>
       <c r="O10">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P10">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q10">
-        <v>0.1230732560877778</v>
+        <v>0.08425993569000001</v>
       </c>
       <c r="R10">
-        <v>1.10765930479</v>
+        <v>0.7583394212100001</v>
       </c>
       <c r="S10">
-        <v>0.04389184112264312</v>
+        <v>0.02943870994605862</v>
       </c>
       <c r="T10">
-        <v>0.04389184112264312</v>
+        <v>0.02943870994605862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H11">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I11">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J11">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N11">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O11">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P11">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q11">
-        <v>0.029635213666</v>
+        <v>0.02386978895700001</v>
       </c>
       <c r="R11">
-        <v>0.266716922994</v>
+        <v>0.214828100613</v>
       </c>
       <c r="S11">
-        <v>0.01056886062180677</v>
+        <v>0.008339619391166382</v>
       </c>
       <c r="T11">
-        <v>0.01056886062180677</v>
+        <v>0.00833961939116638</v>
       </c>
     </row>
   </sheetData>
